--- a/Recycling/Met_rec/metrec_Avg_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>110830.1039065613</v>
+        <v>110830.1039065614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>216811.3829355028</v>
+        <v>216811.3829355027</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>278380.1093116244</v>
+        <v>278380.1093116245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>642552.1584811461</v>
+        <v>642552.158481146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>748329.7765664501</v>
+        <v>748329.7765664503</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>939284.8480597935</v>
+        <v>939284.8480597934</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1396816.716286597</v>
+        <v>1396816.716286596</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_target_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target_Avg.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4301827.291839263</v>
+        <v>4301827.291839264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>95.96464489493643</v>
+        <v>95.96464489493644</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>144.4884070641081</v>
+        <v>144.4884070641082</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3736.562463807168</v>
+        <v>3736.562463807169</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3170.038393908026</v>
+        <v>3170.038393908025</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3490.110469268442</v>
+        <v>3490.110469268443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>152349.6464812748</v>
+        <v>152349.6464812749</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>170671.5706639595</v>
+        <v>170671.5706639596</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>92239.61633849113</v>
+        <v>92239.61633849111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>113848.7511632365</v>
+        <v>113848.7511632366</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1031909.11071275</v>
+        <v>1031909.110712751</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4736539.783255125</v>
+        <v>4736539.783255126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10128,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4248159.513132336</v>
+        <v>4248159.513132335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2433220.928712689</v>
+        <v>2433220.928712688</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10536,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5161805.12388226</v>
+        <v>5161805.123882259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10624,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7109157.962848158</v>
+        <v>7109157.962848159</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2414677.803784348</v>
+        <v>2414677.803784347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10828,7 +10828,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7740338.988823636</v>
+        <v>7740338.988823637</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5707780.891856286</v>
+        <v>5707780.891856287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11032,7 +11032,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8281865.931398187</v>
+        <v>8281865.931398188</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11848,7 +11848,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9026720.192336282</v>
+        <v>9026720.19233628</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4328014.218153668</v>
+        <v>4328014.218153669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12460,7 +12460,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8253311.838552837</v>
+        <v>8253311.838552836</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1895979.54764538</v>
+        <v>1895979.547645381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1708267.631201982</v>
+        <v>1708267.631201983</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13188,7 +13188,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2663614.243315621</v>
+        <v>2663614.24331562</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6451249.147064291</v>
+        <v>6451249.147064289</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6399784.665270715</v>
+        <v>6399784.665270714</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>843363.882293435</v>
+        <v>843363.8822934353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14704,7 +14704,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7787632.651171019</v>
+        <v>7787632.651171021</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15112,7 +15112,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9389475.893958656</v>
+        <v>9389475.893958658</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5539228.141623161</v>
+        <v>5539228.141623162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16248,7 +16248,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5702773.771877239</v>
+        <v>5702773.77187724</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16496,7 +16496,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3906056.477256295</v>
+        <v>3906056.477256296</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16860,7 +16860,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5775096.582677059</v>
+        <v>5775096.582677058</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5597145.694372465</v>
+        <v>5597145.694372464</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17924,7 +17924,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2999924.029302845</v>
+        <v>2999924.029302844</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18492,7 +18492,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3625125.587357627</v>
+        <v>3625125.587357626</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2939378.642492847</v>
+        <v>2939378.642492846</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19920,7 +19920,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3906405.81480857</v>
+        <v>3906405.814808569</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4170796.934824839</v>
+        <v>4170796.934824838</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20256,7 +20256,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2356572.650069031</v>
+        <v>2356572.65006903</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20940,7 +20940,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5092989.793033403</v>
+        <v>5092989.793033404</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>20504578.03087464</v>
+        <v>20504578.03087465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3039791.061343429</v>
+        <v>3039791.061343428</v>
       </c>
     </row>
     <row r="17" spans="1:4">
